--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>5240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,61 +605,61 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>4153</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,93 +669,93 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6796</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>10004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>470</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,93 +989,93 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>1616</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,71 +1107,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>7018</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,39 +1523,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1829</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>678</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,51 +1693,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,93 +1821,93 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 13:16</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1238153591.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1237925012.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 20:26</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1237885630.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-23 20:24</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1237886868.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1051</t>
+          <t>642</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源前三季净利润同比增长578.53%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-23 19:02</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1237879544.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源股东户数增加4.51%，户均持股65.95万元</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 17:11</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1237872952.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,199 +2067,199 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：2022年前三季度净利润同比增长578.5%</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-23 17:05</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1237872620.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：前三季度净利同比增长579%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 16:51</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1237872091.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：前三季度净利润20.51亿元 同比增长578.53%</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-23 16:50</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1237871759.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：2022年前三季度净利润约20.51亿元</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-23 16:48</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1237871859.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.08亿元，居小金属板块第二</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-23 15:06</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1237864482.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少1.6亿元，居小金属板块第二</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1237859627.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源10月21日被深股通减持57.29万股</t>
+          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:52</t>
+          <t>10-24 13:26</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1237797201.html</t>
+          <t>/news,002738,1238167785.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净买入累计1.08亿元（10-20）</t>
+          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-24 13:16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1237357065.html</t>
+          <t>/news,002738,1238153591.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源10月20日获深股通增持17.64万股</t>
+          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1237349009.html</t>
+          <t>/news,002738,1237925012.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净买入累计1.04亿元（10-19）</t>
+          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-20 08:53</t>
+          <t>10-23 20:26</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1236897166.html</t>
+          <t>/news,002738,1237885630.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>601</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源10月19日获深股通增持8.67万股</t>
+          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-23 20:24</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1236888672.html</t>
+          <t>/news,002738,1237886868.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1052</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1727.72万元，融资余额15.16亿元（10-18）</t>
+          <t>中矿资源前三季净利润同比增长578.53%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-23 19:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1236449624.html</t>
+          <t>/news,002738,1237879544.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：全资所属公司Tanco与加拿大上市公司Grid签署谅解备忘录</t>
+          <t>中矿资源股东户数增加4.51%，户均持股65.95万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 20:07</t>
+          <t>10-23 17:11</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1236372873.html</t>
+          <t>/news,002738,1237872952.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源进一步拓展锂矿来源 和加拿大上市公司共同开发</t>
+          <t>中矿资源：2022年前三季度净利润同比增长578.5%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 20:07</t>
+          <t>10-23 17:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1236372265.html</t>
+          <t>/news,002738,1237872620.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源所属Tanco公司与Grid Metals Corp.签署谅解备忘录</t>
+          <t>中矿资源：前三季度净利同比增长579%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-18 18:08</t>
+          <t>10-23 16:51</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1236350596.html</t>
+          <t>/news,002738,1237872091.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：所属Tanco公司签署锂矿合作谅解备忘录</t>
+          <t>中矿资源：前三季度净利润20.51亿元 同比增长578.53%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 16:39</t>
+          <t>10-23 16:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1236336444.html</t>
+          <t>/news,002738,1237871759.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>950</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：所属Tanco公司与Grid Metals Corp. 签署谅解备忘录</t>
+          <t>中矿资源：2022年前三季度净利润约20.51亿元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 16:37</t>
+          <t>10-23 16:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1236335988.html</t>
+          <t>/news,002738,1237871859.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入6218.17万元，两市排名第17（10-17）</t>
+          <t>中矿资源本周融资净买入1.08亿元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 08:55</t>
+          <t>10-23 15:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1236049280.html</t>
+          <t>/news,002738,1237864482.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源10月17日被深股通减持62.94万股</t>
+          <t>中矿资源本周深股通持股市值减少1.6亿元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-18 07:49</t>
+          <t>10-23 14:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1236042061.html</t>
+          <t>/news,002738,1237859627.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2282</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属加拿大Tanco矿山18万吨矿石/年生产线改扩建于三季度完成</t>
+          <t>中矿资源10月21日被深股通减持57.29万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 21:13</t>
+          <t>10-22 07:52</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1235996051.html</t>
+          <t>/news,002738,1237797201.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还6480.17万元，两市排名第15（10-14）</t>
+          <t>中矿资源：连续4日融资净买入累计1.08亿元（10-20）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,93 +2717,93 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 08:49</t>
+          <t>10-21 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1235651716.html</t>
+          <t>/news,002738,1237357065.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入2073.51万元，居小金属板块第四</t>
+          <t>中矿资源10月20日获深股通增持17.64万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-16 15:06</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1235580377.html</t>
+          <t>/news,002738,1237349009.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.56亿元，居小金属板块第二</t>
+          <t>中矿资源：连续3日融资净买入累计1.04亿元（10-19）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-16 14:05</t>
+          <t>10-20 08:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1235575631.html</t>
+          <t>/news,002738,1236897166.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月14日获深股通增持210.95万股</t>
+          <t>中矿资源10月19日获深股通增持8.67万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-15 07:51</t>
+          <t>10-20 07:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1235511741.html</t>
+          <t>/news,002738,1236888672.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：第三季度公司锂盐生产线原料端已逐步开始使用自有矿山供应的锂精矿</t>
+          <t>中矿资源：融资净买入1727.72万元，融资余额15.16亿元（10-18）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 20:50</t>
+          <t>10-19 09:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1235444837.html</t>
+          <t>/news,002738,1236449624.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级</t>
+          <t>中矿资源：全资所属公司Tanco与加拿大上市公司Grid签署谅解备忘录</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 11:01</t>
+          <t>10-18 20:07</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1235223958.html</t>
+          <t>/news,002738,1236372873.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源进一步拓展锂矿来源 和加拿大上市公司共同开发</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 10:49</t>
+          <t>10-18 20:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1235206725.html</t>
+          <t>/news,002738,1236372265.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>606</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中国银河给予中矿资源推荐评级，自有矿生产锂盐开始放量，公司业绩将逐步释放</t>
+          <t>中矿资源所属Tanco公司与Grid Metals Corp.签署谅解备忘录</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 10:31</t>
+          <t>10-18 18:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1235193060.html</t>
+          <t>/news,002738,1236350596.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中国银河维持中矿资源推荐评级</t>
+          <t>中矿资源：所属Tanco公司签署锂矿合作谅解备忘录</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-14 10:26</t>
+          <t>10-18 16:39</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1235182454.html</t>
+          <t>/news,002738,1236336444.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>948</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2710.83万元，融资余额15.02亿元（10-13）</t>
+          <t>中矿资源：所属Tanco公司与Grid Metals Corp. 签署谅解备忘录</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-14 08:44</t>
+          <t>10-18 16:37</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1235089315.html</t>
+          <t>/news,002738,1236335988.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>171</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5240</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4153</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>17597</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>4557</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>10004</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>4633</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>13817</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>937</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>18368</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1616</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,61 +1021,61 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,93 +1085,93 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>13445</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7018</t>
+          <t>1557</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>10276</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,93 +1565,93 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>7084</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>2966</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,125 +1747,125 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,51 +1885,51 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>725</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,115 +2045,115 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,115 +2205,115 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 13:16</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238153591.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1237925012.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-23 20:26</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1237885630.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-23 20:24</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1237886868.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源前三季净利润同比增长578.53%</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-23 19:02</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1237879544.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源股东户数增加4.51%，户均持股65.95万元</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 17:11</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1237872952.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：2022年前三季度净利润同比增长578.5%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-23 17:05</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1237872620.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1171</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源：前三季度净利同比增长579%</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-23 16:51</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1237872091.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2132</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：前三季度净利润20.51亿元 同比增长578.53%</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-23 16:50</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1237871759.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：2022年前三季度净利润约20.51亿元</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 16:48</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1237871859.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.08亿元，居小金属板块第二</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-23 15:06</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1237864482.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少1.6亿元，居小金属板块第二</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 14:04</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1237859627.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源10月21日被深股通减持57.29万股</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-22 07:52</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1237797201.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净买入累计1.08亿元（10-20）</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 08:52</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1237357065.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源10月20日获深股通增持17.64万股</t>
+          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 13:26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1237349009.html</t>
+          <t>/news,002738,1238167785.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净买入累计1.04亿元（10-19）</t>
+          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-20 08:53</t>
+          <t>10-24 13:16</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1236897166.html</t>
+          <t>/news,002738,1238153591.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月19日获深股通增持8.67万股</t>
+          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-20 07:48</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1236888672.html</t>
+          <t>/news,002738,1237925012.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1727.72万元，融资余额15.16亿元（10-18）</t>
+          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 09:05</t>
+          <t>10-23 20:26</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1236449624.html</t>
+          <t>/news,002738,1237885630.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：全资所属公司Tanco与加拿大上市公司Grid签署谅解备忘录</t>
+          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 20:07</t>
+          <t>10-23 20:24</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1236372873.html</t>
+          <t>/news,002738,1237886868.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源进一步拓展锂矿来源 和加拿大上市公司共同开发</t>
+          <t>中矿资源前三季净利润同比增长578.53%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 20:07</t>
+          <t>10-23 19:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1236372265.html</t>
+          <t>/news,002738,1237879544.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源所属Tanco公司与Grid Metals Corp.签署谅解备忘录</t>
+          <t>中矿资源股东户数增加4.51%，户均持股65.95万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-18 18:08</t>
+          <t>10-23 17:11</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1236350596.html</t>
+          <t>/news,002738,1237872952.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：所属Tanco公司签署锂矿合作谅解备忘录</t>
+          <t>中矿资源：2022年前三季度净利润同比增长578.5%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-18 16:39</t>
+          <t>10-23 17:05</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1236336444.html</t>
+          <t>/news,002738,1237872620.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>948</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：所属Tanco公司与Grid Metals Corp. 签署谅解备忘录</t>
+          <t>中矿资源：前三季度净利同比增长579%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-18 16:37</t>
+          <t>10-23 16:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1236335988.html</t>
+          <t>/news,002738,1237872091.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17597</t>
+          <t>3564</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>9452</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>22465</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>968</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>6954</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>6168</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13817</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>937</t>
+          <t>1456</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18368</t>
+          <t>5195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>39023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13445</t>
+          <t>34862</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1467</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>930</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>13956</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10276</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>10337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,115 +1565,115 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7084</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2966</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>7393</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2996</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,61 +1907,61 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,93 +2259,93 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,167 +2355,167 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1171</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,157 +2621,157 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 13:16</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238153591.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1237925012.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>625</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-23 20:26</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1237885630.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
+          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-23 20:24</t>
+          <t>10-24 13:26</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1237886868.html</t>
+          <t>/news,002738,1238167785.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源前三季净利润同比增长578.53%</t>
+          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-23 19:02</t>
+          <t>10-24 13:16</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1237879544.html</t>
+          <t>/news,002738,1238153591.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源股东户数增加4.51%，户均持股65.95万元</t>
+          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-23 17:11</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1237872952.html</t>
+          <t>/news,002738,1237925012.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：2022年前三季度净利润同比增长578.5%</t>
+          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 17:05</t>
+          <t>10-23 20:26</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1237872620.html</t>
+          <t>/news,002738,1237885630.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>613</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：前三季度净利同比增长579%</t>
+          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 16:51</t>
+          <t>10-23 20:24</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1237872091.html</t>
+          <t>/news,002738,1237886868.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,93 +499,93 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9452</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2926</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>9713</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22465</t>
+          <t>2971</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>2487</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6954</t>
+          <t>22539</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6168</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>7142</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>6238</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5195</t>
+          <t>4047</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>39023</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>34862</t>
+          <t>39171</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>34940</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>930</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>13956</t>
+          <t>1483</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>958</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>14061</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10337</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>1687</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>10344</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,157 +1693,157 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7393</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>7446</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,61 +1917,61 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,83 +1981,83 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,24 +2205,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,51 +2269,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,71 +2387,71 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>674</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,93 +2781,93 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,61 +2877,61 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>626</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 13:16</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238153591.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
+          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 13:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1237925012.html</t>
+          <t>/news,002738,1238167785.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>【图解季报】中矿资源：2022年前三季度归母净利润同比翻近6倍，约为20.5亿元</t>
+          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-23 20:26</t>
+          <t>10-24 13:16</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1237885630.html</t>
+          <t>/news,002738,1238153591.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：前三季实现净利20.51亿元 同比增长578.53%</t>
+          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-23 20:24</t>
+          <t>10-24 09:02</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1237886868.html</t>
+          <t>/news,002738,1237925012.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>512</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9713</t>
+          <t>9750</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2971</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>2490</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22539</t>
+          <t>22547</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -905,7 +905,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7142</t>
+          <t>7163</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6238</t>
+          <t>6245</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4047</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1033,7 +1033,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>39171</t>
+          <t>39180</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1016</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34940</t>
+          <t>34953</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1225,7 +1225,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1257,7 +1257,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>963</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14061</t>
+          <t>14074</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1687</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10344</t>
+          <t>10346</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7446</t>
+          <t>7457</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1897,7 +1897,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>3003</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1961,7 +1961,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,93 +563,93 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>9750</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2973</t>
+          <t>3842</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>9937</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>22547</t>
+          <t>2999</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7163</t>
+          <t>22598</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6245</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>7242</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>6305</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5214</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>811</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>39180</t>
+          <t>5227</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>34953</t>
+          <t>39247</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>34991</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14074</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>979</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>14189</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>10346</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1691</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>10362</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,157 +1757,157 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7457</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3003</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,83 +2045,83 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,24 +2269,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,51 +2333,51 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,71 +2451,71 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>680</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>628</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>民生证券维持中矿资源推荐评级 预计2022年净利润同比增长500.3%</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 13:16</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238153591.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1519.41万元，融资余额15.3亿元（10-21）</t>
+          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 09:02</t>
+          <t>10-24 13:26</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1237925012.html</t>
+          <t>/news,002738,1238167785.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,103 +627,103 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>1251</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3842</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9937</t>
+          <t>3929</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2999</t>
+          <t>10071</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22598</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>22619</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7242</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6305</t>
+          <t>7293</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>6341</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>5241</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>39247</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>39287</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>34991</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>35027</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>670</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1495</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14189</t>
+          <t>983</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>14271</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1691</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10362</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>10364</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,83 +1757,83 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,103 +1843,103 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7515</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>7571</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,93 +2045,93 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>506</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,125 +2397,125 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,83 +2525,83 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>790</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>737</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,179 +2653,179 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>683</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,61 +2909,61 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-24 16:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238303154.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>630</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>民生证券给予中矿资源推荐评级 2022年三季度业绩点评：自供锂资源放量 Q3业绩重回增长</t>
+          <t>中矿资源：前三季净利同比增578.53%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 13:26</t>
+          <t>10-24 14:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238167785.html</t>
+          <t>/news,002738,1238265694.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>524</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,93 +659,93 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>544</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1251</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3929</t>
+          <t>564</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10071</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>4016</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>10161</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>22619</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>2575</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7293</t>
+          <t>22646</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6341</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>7436</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39287</t>
+          <t>5266</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>839</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>35027</t>
+          <t>39323</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1495</t>
+          <t>35049</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>676</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14271</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>14303</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10364</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>10365</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,157 +1853,157 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7571</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>7598</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,83 +2141,83 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,24 +2365,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 07:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238449672.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>中矿资源10月24日获深股通增持65.63万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 07:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238449513.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-24 20:58</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238373924.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-24 20:15</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238364750.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-24 20:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238359873.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>安信证券维持中矿资源买入评级 目标价128元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,76 +2941,76 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-24 19:53</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238354973.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中泰证券给予中矿资源买入评级 自有率持续提升 Q3业绩环比高增</t>
+          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 16:42</t>
+          <t>10-24 17:08</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238303154.html</t>
+          <t>/news,002738,1238309395.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>630</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：前三季净利同比增578.53%</t>
+          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 14:59</t>
+          <t>10-24 17:04</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238265694.html</t>
+          <t>/news,002738,1238308321.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>5334</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>2802</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>6082</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4016</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10161</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,93 +957,93 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2575</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22646</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7436</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>4062</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>10235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5266</t>
+          <t>3077</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>2596</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39323</t>
+          <t>22671</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35049</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>1525</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14303</t>
+          <t>5279</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>852</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>39353</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1472</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>35078</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10365</t>
+          <t>684</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>14329</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>10373</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,71 +1939,71 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>7598</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,179 +2109,179 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>483</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>7702</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,93 +2557,93 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>513</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,61 +2653,61 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>信达证券维持中矿资源买入评级 预计2022年净利润同比增长480.77%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 07:57</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238449672.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月24日获深股通增持65.63万股</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 07:55</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238449513.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,83 +2845,83 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-24 20:58</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238373924.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>平安证券给予中矿资源推荐评级 异军突起 锂矿锂盐齐头并进开启成长</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-24 20:15</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238364750.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>平安证券首次给予中矿资源推荐评级 预计2022年净利润同比增长492.78%</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-24 20:07</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238359873.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>安信证券维持中矿资源买入评级 目标价128元</t>
+          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-24 19:53</t>
+          <t>10-25 10:08</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238354973.html</t>
+          <t>/news,002738,1238553195.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>兴业证券维持中矿资源审慎增持评级 预计2022年净利润同比增长473.97%</t>
+          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-24 17:08</t>
+          <t>10-25 08:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238309395.html</t>
+          <t>/news,002738,1238457723.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中泰证券维持中矿资源买入评级 预计2022年净利润同比增长533.62%</t>
+          <t>信达证券给予中矿资源买入评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-24 17:04</t>
+          <t>10-25 08:16</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238308321.html</t>
+          <t>/news,002738,1238452520.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,29 +467,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,167 +499,167 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5334</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2802</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6082</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>6227</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>3073</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>6241</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,71 +979,71 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4062</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>10235</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3077</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2596</t>
+          <t>4091</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>22671</t>
+          <t>10258</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>3084</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7491</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>22678</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4144</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>7505</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5279</t>
+          <t>6398</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>39353</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>5284</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>35078</t>
+          <t>854</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>39361</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>35085</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14329</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1332</t>
+          <t>1509</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>14348</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>10373</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>10373</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,61 +2109,61 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7702</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,71 +2291,71 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3021</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>7737</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>605</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-25 22:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238912058.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-25 22:10</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1238910506.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 21:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238899725.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 20:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238888068.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>国信证券维持中矿资源买入评级 预计2022年净利润同比增长455.69%</t>
+          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 10:08</t>
+          <t>10-25 20:40</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238553195.html</t>
+          <t>/news,002738,1238884744.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4268.19万元，融资余额14.87亿元（10-24）</t>
+          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 08:50</t>
+          <t>10-25 18:40</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238457723.html</t>
+          <t>/news,002738,1238849508.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>信达证券给予中矿资源买入评级</t>
+          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 08:16</t>
+          <t>10-25 10:23</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238452520.html</t>
+          <t>/news,002738,1238578759.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>5227</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,71 +595,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>6058</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6227</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6241</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,71 +819,71 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>6349</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>6311</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,71 +1075,71 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>10258</t>
+          <t>552</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3084</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22678</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7505</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4149</t>
+          <t>10297</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5284</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>22689</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>39361</t>
+          <t>1362</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>7516</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>35085</t>
+          <t>6421</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>5288</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>14348</t>
+          <t>858</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1333</t>
+          <t>39379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>35105</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>10373</t>
+          <t>1515</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>14364</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>10378</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,71 +2291,71 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7737</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3023</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>7793</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-25 22:21</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1238912058.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：今年研发费用增加主要是新产品和新工艺研发支出增加所致</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-25 22:10</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1238910506.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>德邦证券维持中矿资源买入评级 预计2022年净利润同比增长539.35%</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-25 21:40</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238899725.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>德邦证券给予中矿资源买入评级 公司业绩持续增长 锂矿资源捷报频传</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-25 20:43</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238888068.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方财富证券维持中矿资源增持评级 预计2022年净利润同比增长569.43%</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-25 20:40</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238884744.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>515</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>长城证券首次给予中矿资源增持评级 预计2022年净利润同比增长478.45%</t>
+          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 18:40</t>
+          <t>10-25 22:35</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238849508.html</t>
+          <t>/news,002738,1238916478.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>611</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>国信证券给予中矿资源买入评级，自产锂矿逐步放量，三季度利润环比明显提升</t>
+          <t>东方财富证券给予中矿资源增持评级</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 10:23</t>
+          <t>10-25 22:31</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238578759.html</t>
+          <t>/news,002738,1238916086.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5227</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>5925</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6058</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>6240</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,135 +819,135 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6349</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3116</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6311</t>
+          <t>6385</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,93 +1299,93 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,39 +1395,39 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>1252</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>573</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10297</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3089</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>10307</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22689</t>
+          <t>3094</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>2626</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7516</t>
+          <t>22692</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6421</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4160</t>
+          <t>7519</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>6435</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5288</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>39379</t>
+          <t>5291</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1047</t>
+          <t>861</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>35105</t>
+          <t>39386</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>35113</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>14364</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>14371</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10378</t>
+          <t>1479</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>10379</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1655</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,157 +2493,157 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>484</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7793</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>7813</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,83 +2781,83 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>481</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,51 +2877,51 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-26 11:05</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239142092.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-26 08:58</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1238979989.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：锂盐产线原料端已逐步使用自有矿山锂精矿</t>
+          <t>中矿资源10月25日被深股通减持22.87万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-25 22:35</t>
+          <t>10-26 07:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238916478.html</t>
+          <t>/news,002738,1238970071.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>东方财富证券给予中矿资源增持评级</t>
+          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-25 22:31</t>
+          <t>10-26 01:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1238916086.html</t>
+          <t>/news,002738,1239313373.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>915</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5925</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6240</t>
+          <t>6115</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>5471</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>412</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,51 +829,51 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>6322</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,125 +957,125 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3131</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1447</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>6364</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,93 +1341,93 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>325</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>382</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>573</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>10307</t>
+          <t>1253</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3094</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22692</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>10329</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7519</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6435</t>
+          <t>2636</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>22706</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5291</t>
+          <t>7528</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>861</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>39386</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1054</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>35113</t>
+          <t>5308</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>870</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>39410</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>14371</t>
+          <t>35123</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>701</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1627</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1479</t>
+          <t>1028</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>14386</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>10379</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>1706</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>10383</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1655</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,51 +2493,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,115 +2557,115 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7813</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,93 +2685,93 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>7855</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,61 +2781,61 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源10月28日获深股通增持41.62万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-29 07:54</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240600660.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-28 21:46</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240548972.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-28 09:08</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240061226.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,61 +2899,61 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长江证券维持中矿资源买入评级 预计2022年净利润同比增长546.52%</t>
+          <t>中矿资源10月27日被深股通减持10.11万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-26 11:05</t>
+          <t>10-28 07:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1239142092.html</t>
+          <t>/news,002738,1240049463.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计6485.26万元（10-25）</t>
+          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-26 08:58</t>
+          <t>10-27 23:23</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1238979989.html</t>
+          <t>/news,002738,1240012587.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源10月25日被深股通减持22.87万股</t>
+          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-26 07:56</t>
+          <t>10-27 09:04</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1238970071.html</t>
+          <t>/news,002738,1239508789.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待中国国际金融股份有限公司等多家机构调研</t>
+          <t>中矿资源10月26日获深股通增持62.55万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-26 01:13</t>
+          <t>10-27 07:54</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1239313373.html</t>
+          <t>/news,002738,1239498167.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>915</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6115</t>
+          <t>6126</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -745,7 +745,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5471</t>
+          <t>5472</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6322</t>
+          <t>6326</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1097,7 +1097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1447</t>
+          <t>1450</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1129,7 +1129,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>6452</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6364</t>
+          <t>6368</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3103</t>
+          <t>3104</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2636</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1801,7 +1801,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1391</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2217,7 +2217,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14386</t>
+          <t>14387</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>5232</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>2708</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,93 +701,93 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6126</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5472</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6326</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>6266</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>5503</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,71 +1011,71 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1364</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>6348</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6368</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,71 +1235,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>1369</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>6471</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>3151</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>6375</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,71 +1491,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1253</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10329</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,93 +1693,93 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3104</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22706</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7528</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6452</t>
+          <t>4197</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4175</t>
+          <t>10337</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>3108</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>870</t>
+          <t>22711</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39410</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>7533</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>35123</t>
+          <t>6459</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>4180</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>14387</t>
+          <t>873</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>39424</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>35132</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1706</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>10383</t>
+          <t>1528</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>14395</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>10387</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,71 +2707,71 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>7855</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月28日获深股通增持41.62万股</t>
+          <t>中矿资源10月31日获深股通增持37.08万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-29 07:54</t>
+          <t>11-01 07:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1240600660.html</t>
+          <t>/news,002738,1241297755.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>国投瑞银瑞利混合大幅加仓中矿资源</t>
+          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-28 21:46</t>
+          <t>10-31 18:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1240548972.html</t>
+          <t>/news,002738,1241178372.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计9692.18万元（10-27）</t>
+          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-28 09:08</t>
+          <t>10-31 10:32</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1240061226.html</t>
+          <t>/news,002738,1240920639.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源10月27日被深股通减持10.11万股</t>
+          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-28 07:59</t>
+          <t>10-31 08:55</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1240049463.html</t>
+          <t>/news,002738,1240796064.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华安证券维持中矿资源买入评级 预计2022年净利润同比增长547.06%</t>
+          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-27 23:23</t>
+          <t>10-30 15:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1240012587.html</t>
+          <t>/news,002738,1240714153.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计7038.29万元（10-26）</t>
+          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-27 09:04</t>
+          <t>10-30 14:08</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1239508789.html</t>
+          <t>/news,002738,1240707480.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>7871</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源10月26日获深股通增持62.55万股</t>
+          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-27 07:54</t>
+          <t>10-29 12:11</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1239498167.html</t>
+          <t>/news,002738,1240618882.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5232</t>
+          <t>155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2708</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>3329</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,71 +723,71 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>5937</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>4790</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6266</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5503</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6348</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>6296</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,71 +1235,71 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1369</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>6359</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6471</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6375</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,71 +1459,71 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>6478</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>3154</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>6380</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,71 +1715,71 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4197</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10337</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22711</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7533</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6459</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4180</t>
+          <t>10344</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>3109</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>22717</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>39424</t>
+          <t>1406</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1068</t>
+          <t>7536</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>35132</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1528</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>5315</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>14395</t>
+          <t>875</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>39428</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>35141</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>708</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>10387</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1035</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>14400</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源10月31日获深股通增持37.08万股</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-01 07:57</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1241297755.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>10388</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交202.5万元，折价10.00%（10-31）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,51 +2845,51 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-31 18:00</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1241178372.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中邮证券维持中矿资源推荐评级 目标价132.6元</t>
+          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-31 10:32</t>
+          <t>11-03 08:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1240920639.html</t>
+          <t>/news,002738,1242333722.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：连续6日融资净偿还累计1.26亿元（10-28）</t>
+          <t>中矿资源11月02日获深股通增持9.53万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-31 08:55</t>
+          <t>11-03 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1240796064.html</t>
+          <t>/news,002738,1242326255.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还8172.77万元，居小金属板块第四</t>
+          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-30 15:13</t>
+          <t>11-02 08:48</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1240714153.html</t>
+          <t>/news,002738,1241808744.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加1.24亿元，居小金属板块第三</t>
+          <t>中矿资源11月01日获深股通增持2.84万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-30 14:08</t>
+          <t>11-02 07:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1240707480.html</t>
+          <t>/news,002738,1241800609.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>7871</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>十年涨超23倍 这只芯片股超300家机构调研！这些公司高增长低估值（附股）</t>
+          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-29 12:11</t>
+          <t>11-01 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1240618882.html</t>
+          <t>/news,002738,1241305534.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3834</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>2853</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3976</t>
+          <t>2378</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3329</t>
+          <t>4579</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5937</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2794</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4375</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4790</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>6060</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>4861</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,71 +1107,71 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6296</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>6302</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,125 +1405,125 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>6369</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,125 +1565,125 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6478</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6380</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1466</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>3158</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>6386</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,29 +1939,29 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,93 +2077,93 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>10344</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3109</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22717</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7536</t>
+          <t>10350</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>3113</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>22719</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5315</t>
+          <t>1409</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>7537</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>39428</t>
+          <t>6468</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35141</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>5316</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>875</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>39435</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>14400</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>35144</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>10388</t>
+          <t>14401</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4295.19万元，融资余额14.15亿元（11-02）</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 08:49</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1242333722.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源11月02日获深股通增持9.53万股</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 07:54</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1242326255.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还432.61万元，融资余额14.58亿元（11-01）</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-02 08:48</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1241808744.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源11月01日获深股通增持2.84万股</t>
+          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-02 07:47</t>
+          <t>11-03 12:02</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1241800609.html</t>
+          <t>/news,002738,1242519474.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>10390</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入4302.74万元，融资余额14.62亿元（10-31）</t>
+          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-01 08:55</t>
+          <t>11-03 09:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1241305534.html</t>
+          <t>/news,002738,1242400940.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>693</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2853</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2378</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>4693</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6060</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>6081</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,157 +1085,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>4870</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6302</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>6304</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6369</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>6375</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,135 +1619,135 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3158</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6386</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>3160</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>6390</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,93 +2099,93 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4211</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>10350</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3113</t>
+          <t>4214</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-04 07:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1242818186.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>10356</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-04 06:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1242809658.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>22719</t>
+          <t>3115</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-03 23:31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1242788546.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>2654</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-03 23:13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1242786158.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7537</t>
+          <t>22726</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-03 23:12</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1242787957.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6468</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-03 22:41</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1242788857.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>7542</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-03 22:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1242772969.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>6477</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-03 21:38</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1242763408.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5316</t>
+          <t>4185</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-03 20:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1242750209.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-03 19:36</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1242721039.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>39435</t>
+          <t>5318</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-03 15:15</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1242648433.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>876</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-03 15:09</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1242643793.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>35144</t>
+          <t>39439</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-03 14:21</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1242602009.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-03 14:17</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1242596910.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>35147</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-03 14:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1242590863.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>709</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-03 13:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1242571672.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>14401</t>
+          <t>1531</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-03 13:04</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1242538964.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-03 13:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1242541603.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>14401</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-03 12:48</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242536589.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-03 12:33</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242525306.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：动力金属公司矿权尚处于初级勘探阶段 出售该公司股票以及终止包销协议不会对公司业绩产生重大影响</t>
+          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 12:02</t>
+          <t>11-03 12:16</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1242519474.html</t>
+          <t>/news,002738,1242522953.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>10390</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 中矿资源：仅对Power Metals交易产生影响</t>
+          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 09:56</t>
+          <t>11-03 12:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1242400940.html</t>
+          <t>/news,002738,1242522847.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,39 +531,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>4360</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4693</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>6022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6081</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>12868</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,157 +1085,157 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4870</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6304</t>
+          <t>3699</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>5088</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6375</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>6278</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>4928</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>4942</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,93 +1853,93 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6390</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>508</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>6320</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>5556</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,39 +2195,39 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>6416</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4214</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>突遭“黑天鹅” 三家中企被要求剥离在加拿大锂矿投资</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,125 +2333,125 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-04 07:38</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1242818186.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10356</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>加拿大限制锂矿投资 三家A股公司回应影响</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-04 06:43</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1242809658.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3115</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：公司在加拿大投资的Tanco矿已履行加拿大国家安全审查程序</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-03 23:31</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1242788546.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>1451</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：公司海外矿产资源包括津巴布韦Bikita矿、加拿大Tanco矿、赞比亚西北省希富玛铜矿等</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-03 23:13</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1242786158.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>22726</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>啥情况？加拿大要求锂矿中企撤资！三家A股涉事公司发声 外交部回应</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-03 23:12</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1242787957.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>三家中国锂矿企业被加拿大政府要求剥离在加资产  公司有回应</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-03 22:41</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1242788857.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>6537</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>加拿大要求3家中企撤资 外交部：敦促加方停止无理打压</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-03 22:08</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1242772969.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6477</t>
+          <t>3179</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>加拿大要求撤资！涉这三家A股锂矿公司 影响几何？回应来了</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-03 21:38</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1242763408.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4185</t>
+          <t>6426</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>外交部敦促加方：停止！上市公司公告了！锂矿市场 火线研判</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-03 20:28</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1242750209.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加锂矿资产 三家涉事上市公司回应</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-03 19:36</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1242721039.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>年度最牛锂矿股遭阻击！中矿资源被告知退出加拿大锂矿投资 国内自主锂矿、盐湖价值或将强化</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-03 15:15</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1242648433.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>876</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>加拿大要求剥离在加关键矿物投资 中矿资源：不会对业绩产生重大影响</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-03 15:09</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1242643793.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>39439</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>国外锂矿不香了？三家中国公司被“勒令”退出在加锂矿投资 影响究竟几何</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-03 14:21</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1242602009.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源大幅跳水 盘中一度触及跌停 公司披露投资加拿大动力金属公司进展</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-03 14:17</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1242596910.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>35147</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>加拿大要求撤出关键矿产公司投资？三家锂矿股这样回应</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-03 14:08</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1242590863.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>加拿大要求部分外国投资者撤出对加关键矿物公司投资 三家涉事A股公司回应</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-03 13:46</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1242571672.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>突发！加拿大要求撤资！涉三家A股公司！紧急回应来了</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,93 +2845,93 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-03 13:04</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1242538964.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>加拿大下手 三家中企回应！400亿巨头盘中跌停</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-03 13:02</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1242541603.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>14401</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>锂矿突发！400亿龙头直奔跌停 午间紧急回应来了！</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-03 12:48</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1242536589.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源或出售PWM股份及终止相关包销协议</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-03 12:33</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1242525306.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：香港中矿稀有收到加拿大国家安全审查结果告知函</t>
+          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-03 12:16</t>
+          <t>11-04 08:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1242522953.html</t>
+          <t>/news,002738,1242825545.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：出售加拿大Power Metals Corp.股票不会对业绩产生重大影响</t>
+          <t>中矿资源11月03日被深股通减持167.48万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 12:13</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1242522847.html</t>
+          <t>/news,002738,1242815790.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,157 +477,157 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4360</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>2696</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>6038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12868</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>640</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>12885</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,103 +1139,103 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3400</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5088</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>2497</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>5089</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4240</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3607</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>4240</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4928</t>
+          <t>6280</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4942</t>
+          <t>2867</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,157 +1853,157 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6320</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5556</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>6322</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>5560</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6416</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,135 +2387,135 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1451</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1455</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6537</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>6539</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>6426</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,93 +2867,93 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:13</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243412051.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.69亿元，两市排名第二（11-03）</t>
+          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 08:47</t>
+          <t>11-06 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1242825545.html</t>
+          <t>/news,002738,1243404861.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源11月03日被深股通减持167.48万股</t>
+          <t>中矿资源11月04日获深股通增持138.29万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1242815790.html</t>
+          <t>/news,002738,1243319704.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,93 +637,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>5305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>2716</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4087</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6038</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>12885</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>644</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>12897</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3402</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>3405</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>2499</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>5099</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4240</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6280</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2867</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>6283</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,93 +1917,93 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>4970</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>4947</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,71 +2035,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6322</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5560</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>6322</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>5562</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>6422</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,167 +2451,167 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1455</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6539</t>
+          <t>1459</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3182</t>
+          <t>569</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>6542</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>6427</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-09 08:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1244436535.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源11月08日获深股通增持75.02万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-09 07:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1244426671.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,71 +2931,71 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入1.65亿元，两市排名第15</t>
+          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-06 15:13</t>
+          <t>11-08 08:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1243412051.html</t>
+          <t>/news,002738,1243983014.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加2333.35万元，居小金属板块第六</t>
+          <t>中矿资源11月07日被深股通减持78.42万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-06 14:06</t>
+          <t>11-08 08:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1243404861.html</t>
+          <t>/news,002738,1243976813.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源11月04日获深股通增持138.29万股</t>
+          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1243319704.html</t>
+          <t>/news,002738,1243514343.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>143</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>2662</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>1358</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>4201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,83 +637,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5305</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,93 +797,93 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4688</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6052</t>
+          <t>4704</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>4148</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>6065</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12897</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,51 +1245,51 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>12922</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,71 +1427,71 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5099</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6283</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>3614</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,93 +2013,93 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>6285</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>4988</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>4948</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,71 +2195,71 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6322</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5562</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6422</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>6322</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>5569</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,125 +2493,125 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>6424</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,125 +2653,125 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6542</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>3183</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>6427</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>570</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>6548</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1307.8万元，融资余额16.66亿元（11-08）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1244436535.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源11月08日获深股通增持75.02万股</t>
+          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-09 07:42</t>
+          <t>11-11 18:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1244426671.html</t>
+          <t>/news,002738,1245903319.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还718.47万元，融资余额16.79亿元（11-07）</t>
+          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 08:49</t>
+          <t>11-11 08:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1243983014.html</t>
+          <t>/news,002738,1245422803.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>316</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源11月07日被深股通减持78.42万股</t>
+          <t>中矿资源11月10日被深股通减持1.12万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-08 08:01</t>
+          <t>11-11 07:38</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1243976813.html</t>
+          <t>/news,002738,1245410382.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1.03亿元，两市排名第14（11-04）</t>
+          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-07 08:53</t>
+          <t>11-10 08:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1243514343.html</t>
+          <t>/news,002738,1244899945.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2662</t>
+          <t>4060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1358</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>3378</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,93 +797,93 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>2179</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4704</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>577</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>5369</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3642</t>
+          <t>4708</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6065</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12922</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,93 +1405,93 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>12932</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,71 +1555,71 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>909</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5104</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4241</t>
+          <t>5107</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6285</t>
+          <t>4243</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>3615</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4988</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>6286</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,93 +2173,93 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>5022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6322</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5569</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6424</t>
+          <t>6324</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>6426</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,71 +2707,71 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1463</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,125 +2781,125 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6548</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>1471</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>572</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：子公司500万美元收购赞比亚Nkombwa稀土矿权所属公司中矿香港稀土100%股权</t>
+          <t>中矿资源11月11日被深股通减持53.36万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 18:22</t>
+          <t>11-12 07:43</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1245903319.html</t>
+          <t>/news,002738,1245985851.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>1505</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计4580.04万元（11-10）</t>
+          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 08:44</t>
+          <t>11-12 00:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1245422803.html</t>
+          <t>/news,002738,1246096433.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>6550</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源11月10日被深股通减持1.12万股</t>
+          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 07:38</t>
+          <t>11-11 21:14</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1245410382.html</t>
+          <t>/news,002738,1245935027.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计3383.57万元（11-09）</t>
+          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 08:49</t>
+          <t>11-11 21:13</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1244899945.html</t>
+          <t>/news,002738,1245934829.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
+          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,93 +477,93 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1257405938.html</t>
+          <t>/news,002738,1258215091.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月08日获深股通增持15.14万股</t>
+          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1257395273.html</t>
+          <t>/news,002738,1258089448.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4060</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
+          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-08 18:01</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1257206994.html</t>
+          <t>/news,002738,1258081927.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2986</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：公司整体经营情况向好</t>
+          <t>中矿资源12月09日被深股通减持73.67万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 17:45</t>
+          <t>12-10 07:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1257202100.html</t>
+          <t>/news,002738,1257964522.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>4539</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>3471</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>3631</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2179</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>4371</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>2208</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5369</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>5390</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4158</t>
+          <t>2738</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3646</t>
+          <t>4724</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>6096</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12932</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,93 +1533,93 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>12951</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,71 +1683,71 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5107</t>
+          <t>2419</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2505</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>5112</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3615</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>6286</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6324</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6426</t>
+          <t>6328</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,51 +2781,51 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>6429</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,71 +2835,71 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>572</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源11月11日被深股通减持53.36万股</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,108 +2909,108 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-12 07:43</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1245985851.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1505</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>【调研快报】中矿资源接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-12 00:05</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1246096433.html</t>
+          <t>/news,002738,1246098897.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>6550</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：明年将达到6.6万吨/年锂盐和338万吨/年锂矿石选矿产能</t>
+          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 21:14</t>
+          <t>11-13 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1245935027.html</t>
+          <t>/news,002738,1246093842.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3186</t>
+          <t>1486</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：公司现有3.1万吨锂盐产线和88万吨锂矿石选矿产线</t>
+          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 21:13</t>
+          <t>11-13 09:40</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1245934829.html</t>
+          <t>/news,002738,1246078431.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
+          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1258215091.html</t>
+          <t>/news,002738,1258771497.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,71 +499,71 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
+          <t>中矿资源12月12日被深股通减持66.89万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1258089448.html</t>
+          <t>/news,002738,1258761476.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
+          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-12 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1258081927.html</t>
+          <t>/news,002738,1258569764.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源12月09日被深股通减持73.67万股</t>
+          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-10 07:49</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1257964522.html</t>
+          <t>/news,002738,1258215091.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,71 +595,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
+          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1257405938.html</t>
+          <t>/news,002738,1258089448.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源12月08日获深股通增持15.14万股</t>
+          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1257395273.html</t>
+          <t>/news,002738,1258081927.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4539</t>
+          <t>603</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
+          <t>中矿资源12月09日被深股通减持73.67万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-08 18:01</t>
+          <t>12-10 07:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1257206994.html</t>
+          <t>/news,002738,1257964522.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：公司整体经营情况向好</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-08 17:45</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1257202100.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>4595</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3631</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>4383</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>2214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,12 +1053,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
@@ -1070,76 +1070,76 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5390</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4724</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>5392</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4176</t>
+          <t>4727</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6096</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>4178</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>6098</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12951</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,93 +1661,93 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>647</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>12953</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,93 +1757,93 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2419</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3707</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5112</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>2506</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>5114</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>3627</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6286</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>6287</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>2871</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,93 +2429,93 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>5104</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>4953</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,71 +2547,71 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>6328</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>6329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>6429</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4580.04万元，居小金属板块第三</t>
+          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:59</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1246098897.html</t>
+          <t>/news,002738,1246700308.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,54 +2963,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少3092.79万元，居小金属板块第六</t>
+          <t>中矿资源11月14日被深股通减持16.79万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-13 14:06</t>
+          <t>11-15 07:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1246093842.html</t>
+          <t>/news,002738,1246691823.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中金公司维持中矿资源跑赢行业评级 目标价124.92元</t>
+          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-13 09:40</t>
+          <t>11-14 08:59</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1246078431.html</t>
+          <t>/news,002738,1246198624.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
+          <t>中矿资源：融资净偿还886.29万元，融资余额15.22亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1258771497.html</t>
+          <t>/news,002738,1259356456.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月12日被深股通减持66.89万股</t>
+          <t>中矿资源12月13日被深股通减持51.82万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1258761476.html</t>
+          <t>/news,002738,1259347918.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
+          <t>大宗交易：中矿资源成交2051.76万元，折价9.48%（12-13）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 18:00</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1258569764.html</t>
+          <t>/news,002738,1259133207.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
+          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1258215091.html</t>
+          <t>/news,002738,1258771497.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,71 +595,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
+          <t>中矿资源12月12日被深股通减持66.89万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1258089448.html</t>
+          <t>/news,002738,1258761476.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2732</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
+          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-12 18:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1258081927.html</t>
+          <t>/news,002738,1258569764.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>603</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源12月09日被深股通减持73.67万股</t>
+          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-10 07:49</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1257964522.html</t>
+          <t>/news,002738,1258215091.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,71 +691,71 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
+          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1257405938.html</t>
+          <t>/news,002738,1258089448.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源12月08日获深股通增持15.14万股</t>
+          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1257395273.html</t>
+          <t>/news,002738,1258081927.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4595</t>
+          <t>610</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
+          <t>中矿资源12月09日被深股通减持73.67万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-08 18:01</t>
+          <t>12-10 07:49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1257206994.html</t>
+          <t>/news,002738,1257964522.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：公司整体经营情况向好</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-08 17:45</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1257202100.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>3527</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4383</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>3675</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>1448</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>4665</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>486</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>2226</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,93 +1149,93 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5392</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4727</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>5395</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4178</t>
+          <t>4729</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6098</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>4184</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>6105</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12953</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,93 +1757,93 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>12958</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,93 +1853,93 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2506</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>5114</t>
+          <t>3409</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>2507</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>5116</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>4245</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6287</t>
+          <t>3633</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2871</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5104</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4953</t>
+          <t>6287</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>2872</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,93 +2525,93 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>5121</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>4955</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,71 +2643,71 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1248770395.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-20 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1248763093.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源11月18日获深股通增持59.91万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-19 07:57</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1248639261.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-18 08:42</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1248161208.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6329</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源11月17日获深股通增持77.96万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-18 08:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1248155856.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-17 08:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1247677558.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源11月16日被深股通减持12.32万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-17 07:36</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1247665232.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-16 22:34</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1247616197.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6429</t>
+          <t>5580</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-16 18:46</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1247553122.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入3519.81万元，融资余额16.6亿元（11-14）</t>
+          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-15 08:59</t>
+          <t>11-16 08:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1246700308.html</t>
+          <t>/news,002738,1247182995.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源11月14日被深股通减持16.79万股</t>
+          <t>中矿资源11月15日获深股通增持13.09万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-15 07:59</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1246691823.html</t>
+          <t>/news,002738,1247174228.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>6431</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计6150.04万元（11-11）</t>
+          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-14 08:59</t>
+          <t>11-15 18:35</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1246198624.html</t>
+          <t>/news,002738,1247078157.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还886.29万元，融资余额15.22亿元（12-13）</t>
+          <t>中矿资源12月19日获深股通增持162.52万股</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:00</t>
+          <t>12-20 07:31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1259356456.html</t>
+          <t>/news,002738,1261720744.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源12月13日被深股通减持51.82万股</t>
+          <t>中矿资源：可转债转股价格调整为11.01元/股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-14 07:56</t>
+          <t>12-19 18:55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1259347918.html</t>
+          <t>/news,002738,1261581018.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交2051.76万元，折价9.48%（12-13）</t>
+          <t>中矿资源：连续4日融资净偿还累计6013.67万元（12-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,93 +541,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-19 09:04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1259133207.html</t>
+          <t>/news,002738,1261209688.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
+          <t>中矿资源本周融资净偿还2130.22万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-18 15:19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1258771497.html</t>
+          <t>/news,002738,1261089122.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源12月12日被深股通减持66.89万股</t>
+          <t>中矿资源本周深股通持股市值减少1.95亿元，居小金属板块第一</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1258761476.html</t>
+          <t>/news,002738,1261080694.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
+          <t>中矿资源12月16日被深股通减持151.89万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-12 18:00</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1258569764.html</t>
+          <t>/news,002738,1260974729.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>5514</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
+          <t>中矿资源 ：明年随着扩建项目建成达产 公司将逐步完全使用自有矿山的锂精矿进行锂盐生产加工</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-16 23:37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1258215091.html</t>
+          <t>/news,002738,1260948953.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-16 09:07</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1258089448.html</t>
+          <t>/news,002738,1260489865.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,39 +723,39 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-16 08:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1258081927.html</t>
+          <t>/news,002738,1260487086.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源12月09日被深股通减持73.67万股</t>
+          <t>中矿资源12月15日获深股通增持34.79万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-10 07:49</t>
+          <t>12-16 07:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1257964522.html</t>
+          <t>/news,002738,1260477397.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
+          <t>中矿资源：融资净偿还84.8万元，融资余额15.21亿元（12-14）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-15 08:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1257405938.html</t>
+          <t>/news,002738,1259943072.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源12月08日获深股通增持15.14万股</t>
+          <t>中矿资源12月14日被深股通减持26.18万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-15 07:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1257395273.html</t>
+          <t>/news,002738,1259934960.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
+          <t>中矿资源：融资净偿还886.29万元，融资余额15.22亿元（12-13）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-08 18:01</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1257206994.html</t>
+          <t>/news,002738,1259356456.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源：公司整体经营情况向好</t>
+          <t>中矿资源12月13日被深股通减持51.82万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-08 17:45</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1257202100.html</t>
+          <t>/news,002738,1259347918.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>大宗交易：中矿资源成交2051.76万元，折价9.48%（12-13）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1259133207.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>548</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1258771497.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3675</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源12月12日被深股通减持66.89万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1258761476.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-12 18:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1258569764.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,93 +1053,93 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1258215091.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1258089448.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1258081927.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2226</t>
+          <t>621</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源12月09日被深股通减持73.67万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-10 07:49</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1257964522.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>3632</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5395</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4729</t>
+          <t>4948</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>492</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4184</t>
+          <t>2242</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6105</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>2759</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12958</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,71 +1875,71 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>4213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>6143</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3409</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>651</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>12986</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5116</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,29 +2259,29 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3633</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>913</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>6287</t>
+          <t>2429</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4955</t>
+          <t>2514</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>5132</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,71 +2643,71 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入849.35万元，居小金属板块第十三</t>
+          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-23 08:44</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1248770395.html</t>
+          <t>/news,002738,1249883077.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9479.85万元，居小金属板块第二</t>
+          <t>中矿资源11月22日被深股通减持22.04万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-20 14:06</t>
+          <t>11-23 07:56</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1248763093.html</t>
+          <t>/news,002738,1249876930.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>2030</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源11月18日获深股通增持59.91万股</t>
+          <t>中矿资源：目前锂盐产品销售情况良好</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-19 07:57</t>
+          <t>11-23 07:38</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1248639261.html</t>
+          <t>/news,002738,1249874695.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1117.81万元，融资余额16.33亿元（11-17）</t>
+          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-18 08:42</t>
+          <t>11-22 21:30</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1248161208.html</t>
+          <t>/news,002738,1249788049.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>3655</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源11月17日获深股通增持77.96万股</t>
+          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-18 08:03</t>
+          <t>11-22 11:20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1248155856.html</t>
+          <t>/news,002738,1249514648.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1676.22万元，融资余额16.22亿元（11-16）</t>
+          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-17 08:53</t>
+          <t>11-22 08:48</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1247677558.html</t>
+          <t>/news,002738,1249355949.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源11月16日被深股通减持12.32万股</t>
+          <t>中矿资源11月21日获深股通增持9.75万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-17 07:36</t>
+          <t>11-22 07:57</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1247665232.html</t>
+          <t>/news,002738,1249349599.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>6294</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山生产经营保障措施完备</t>
+          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-16 22:34</t>
+          <t>11-21 22:22</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1247616197.html</t>
+          <t>/news,002738,1249280599.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5580</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源：公司于2022年6月启动了120万吨/年选矿厂的改扩建工程和200万吨/年选矿厂的建设工程</t>
+          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-16 18:46</t>
+          <t>11-21 18:02</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1247553122.html</t>
+          <t>/news,002738,1249211451.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>5220</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2112.04万元，融资余额16.39亿元（11-15）</t>
+          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-16 08:45</t>
+          <t>11-21 17:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1247182995.html</t>
+          <t>/news,002738,1249204860.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>4959</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源11月15日获深股通增持13.09万股</t>
+          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-21 17:32</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1247174228.html</t>
+          <t>/news,002738,1249203784.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6431</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：公司氟化锂生产线于2021年底完成改扩建 产能由3000吨/年提升为6000吨/年</t>
+          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-15 18:35</t>
+          <t>11-21 08:45</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1247078157.html</t>
+          <t>/news,002738,1248871446.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/002738.xlsx
+++ b/news_ann/news/tmp/002738.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中矿资源12月19日获深股通增持162.52万股</t>
+          <t>中矿资源：融资净偿还981.09万元，融资余额14.21亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 07:31</t>
+          <t>12-23 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,002738,1261720744.html</t>
+          <t>/news,002738,1263201449.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中矿资源：可转债转股价格调整为11.01元/股</t>
+          <t>中矿资源12月22日被深股通减持34.85万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-19 18:55</t>
+          <t>12-23 07:31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,002738,1261581018.html</t>
+          <t>/news,002738,1263188617.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计6013.67万元（12-16）</t>
+          <t>注意！中矿资源将于2023年1月9日召开股东大会</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 09:04</t>
+          <t>12-22 17:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,002738,1261209688.html</t>
+          <t>/news,002738,1263039362.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,71 +563,71 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2130.22万元，居小金属板块第二</t>
+          <t>中矿资源：融资净偿还1887.07万元，融资余额14.31亿元（12-21）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-18 15:19</t>
+          <t>12-22 08:39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,002738,1261089122.html</t>
+          <t>/news,002738,1262676652.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少1.95亿元，居小金属板块第一</t>
+          <t>中矿资源12月21日获深股通增持65.54万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-18 14:05</t>
+          <t>12-22 07:32</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,002738,1261080694.html</t>
+          <t>/news,002738,1262668266.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中矿资源12月16日被深股通减持151.89万股</t>
+          <t>中矿资源：所属Bikita矿山和Tanco矿山的锂精矿持续运回国内 将进一步提升公司原料保障自给率</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-17 07:43</t>
+          <t>12-21 21:06</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,002738,1260974729.html</t>
+          <t>/news,002738,1262592149.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>2177</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中矿资源 ：明年随着扩建项目建成达产 公司将逐步完全使用自有矿山的锂精矿进行锂盐生产加工</t>
+          <t>中矿资源：公司所属Bikita矿山和Tanco矿山的锂精矿持续运回国内</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-16 23:37</t>
+          <t>12-21 20:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,002738,1260948953.html</t>
+          <t>/news,002738,1262589436.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>2887</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
+          <t>中矿资源：Bikita矿山规划的200万t/a建设工程和120万t/a改扩建工程已于今年6月动工建设</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-16 09:07</t>
+          <t>12-21 19:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,002738,1260489865.html</t>
+          <t>/news,002738,1262562836.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
+          <t>中矿资源：融资净买入1243.48万元，融资余额14.5亿元（12-20）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-16 08:56</t>
+          <t>12-21 08:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,002738,1260487086.html</t>
+          <t>/news,002738,1262204675.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中矿资源12月15日获深股通增持34.79万股</t>
+          <t>中矿资源12月20日被深股通减持93.68万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-16 07:51</t>
+          <t>12-21 07:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,002738,1260477397.html</t>
+          <t>/news,002738,1262197445.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>4749</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还84.8万元，融资余额15.21亿元（12-14）</t>
+          <t>中矿资源：公司从Bikita矿山运回的锂精矿价格依据市场价格和出口协议确定</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-15 08:54</t>
+          <t>12-20 17:34</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,002738,1259943072.html</t>
+          <t>/news,002738,1262038685.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中矿资源12月14日被深股通减持26.18万股</t>
+          <t>中矿资源：连续5日融资净偿还累计9388.45万元（12-19）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-15 07:58</t>
+          <t>12-20 08:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,002738,1259934960.html</t>
+          <t>/news,002738,1261732507.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还886.29万元，融资余额15.22亿元（12-13）</t>
+          <t>中矿资源12月19日获深股通增持162.52万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-14 09:00</t>
+          <t>12-20 07:31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,002738,1259356456.html</t>
+          <t>/news,002738,1261720744.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中矿资源12月13日被深股通减持51.82万股</t>
+          <t>中矿资源：可转债转股价格调整为11.01元/股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-14 07:56</t>
+          <t>12-19 18:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,002738,1259347918.html</t>
+          <t>/news,002738,1261581018.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交2051.76万元，折价9.48%（12-13）</t>
+          <t>中矿资源：连续4日融资净偿还累计6013.67万元（12-16）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,93 +925,93 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-13 18:00</t>
+          <t>12-19 09:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,002738,1259133207.html</t>
+          <t>/news,002738,1261209688.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
+          <t>中矿资源本周融资净偿还2130.22万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-13 09:01</t>
+          <t>12-18 15:19</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,002738,1258771497.html</t>
+          <t>/news,002738,1261089122.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中矿资源12月12日被深股通减持66.89万股</t>
+          <t>中矿资源本周深股通持股市值减少1.95亿元，居小金属板块第一</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-13 07:51</t>
+          <t>12-18 14:05</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,002738,1258761476.html</t>
+          <t>/news,002738,1261080694.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
+          <t>中矿资源12月16日被深股通减持151.89万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-12 18:00</t>
+          <t>12-17 07:43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,002738,1258569764.html</t>
+          <t>/news,002738,1260974729.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>5712</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
+          <t>中矿资源 ：明年随着扩建项目建成达产 公司将逐步完全使用自有矿山的锂精矿进行锂盐生产加工</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-12 08:58</t>
+          <t>12-16 23:37</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,002738,1258215091.html</t>
+          <t>/news,002738,1260948953.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-11 15:07</t>
+          <t>12-16 09:07</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,002738,1258089448.html</t>
+          <t>/news,002738,1260489865.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还3669.01万元，两市排名第17（12-15）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-11 14:06</t>
+          <t>12-16 08:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,002738,1258081927.html</t>
+          <t>/news,002738,1260487086.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>479</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中矿资源12月09日被深股通减持73.67万股</t>
+          <t>中矿资源12月15日获深股通增持34.79万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-10 07:49</t>
+          <t>12-16 07:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,002738,1257964522.html</t>
+          <t>/news,002738,1260477397.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
+          <t>中矿资源：融资净偿还84.8万元，融资余额15.21亿元（12-14）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-09 09:04</t>
+          <t>12-15 08:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,002738,1257405938.html</t>
+          <t>/news,002738,1259943072.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中矿资源12月08日获深股通增持15.14万股</t>
+          <t>中矿资源12月14日被深股通减持26.18万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-09 07:58</t>
+          <t>12-15 07:58</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,002738,1257395273.html</t>
+          <t>/news,002738,1259934960.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
+          <t>中矿资源：融资净偿还886.29万元，融资余额15.22亿元（12-13）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-08 18:01</t>
+          <t>12-14 09:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,002738,1257206994.html</t>
+          <t>/news,002738,1259356456.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3632</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>中矿资源：公司整体经营情况向好</t>
+          <t>中矿资源12月13日被深股通减持51.82万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-08 17:45</t>
+          <t>12-14 07:56</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,002738,1257202100.html</t>
+          <t>/news,002738,1259347918.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>2322</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
+          <t>大宗交易：中矿资源成交2051.76万元，折价9.48%（12-13）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-08 08:44</t>
+          <t>12-13 18:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,002738,1256765021.html</t>
+          <t>/news,002738,1259133207.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>中矿资源12月07日获深股通增持64.95万股</t>
+          <t>中矿资源：融资净买入2509.88万元，融资余额15.31亿元（12-12）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-08 07:59</t>
+          <t>12-13 09:01</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,002738,1256758065.html</t>
+          <t>/news,002738,1258771497.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3906</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
+          <t>中矿资源12月12日被深股通减持66.89万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-07 22:06</t>
+          <t>12-13 07:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,002738,1256647966.html</t>
+          <t>/news,002738,1258761476.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1475</t>
+          <t>2840</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
+          <t>大宗交易：中矿资源成交2783.2万元，折价8.23%（12-12）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-07 17:27</t>
+          <t>12-12 18:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,002738,1256541452.html</t>
+          <t>/news,002738,1258569764.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
+          <t>中矿资源：融资净买入377.98万元，融资余额15.06亿元（12-09）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-07 16:46</t>
+          <t>12-12 08:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,002738,1256529836.html</t>
+          <t>/news,002738,1258215091.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
+          <t>中矿资源本周融资净偿还4524.35万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-07 08:54</t>
+          <t>12-11 15:07</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,002738,1256100163.html</t>
+          <t>/news,002738,1258089448.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中矿资源12月06日获深股通增持63.29万股</t>
+          <t>中矿资源本周深股通持股市值增加7620.53万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-07 07:50</t>
+          <t>12-11 14:06</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,002738,1256091265.html</t>
+          <t>/news,002738,1258081927.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2242</t>
+          <t>622</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
+          <t>中矿资源12月09日被深股通减持73.67万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-06 19:55</t>
+          <t>12-10 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,002738,1255942399.html</t>
+          <t>/news,002738,1257964522.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
+          <t>中矿资源：融资净偿还1168.62万元，融资余额15.02亿元（12-08）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-06 08:47</t>
+          <t>12-09 09:04</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,002738,1255456774.html</t>
+          <t>/news,002738,1257405938.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中矿资源12月05日获深股通增持28.63万股</t>
+          <t>中矿资源12月08日获深股通增持15.14万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-06 07:57</t>
+          <t>12-09 07:58</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,002738,1255449720.html</t>
+          <t>/news,002738,1257395273.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>5320</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
+          <t>中矿资源：公司所属津巴布韦Bikita矿山120万吨/年透锂长石改扩建项目的建设工作正在有序推进中</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,93 +1629,93 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-05 08:49</t>
+          <t>12-08 18:01</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,002738,1254802331.html</t>
+          <t>/news,002738,1257206994.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
+          <t>中矿资源：公司整体经营情况向好</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-04 15:08</t>
+          <t>12-08 17:45</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,002738,1254650815.html</t>
+          <t>/news,002738,1257202100.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
+          <t>中矿资源：融资净偿还4187.67万元，融资余额15.14亿元（12-07）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-04 14:07</t>
+          <t>12-08 08:44</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,002738,1254643536.html</t>
+          <t>/news,002738,1256765021.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中矿资源12月02日被深股通减持83.75万股</t>
+          <t>中矿资源12月07日获深股通增持64.95万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-03 07:47</t>
+          <t>12-08 07:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,002738,1254511683.html</t>
+          <t>/news,002738,1256758065.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
+          <t>中矿资源：今年三季度公司锂盐生产线原料端首次使用自有矿山供应的锂精矿</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-02 20:15</t>
+          <t>12-07 22:06</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,002738,1254382957.html</t>
+          <t>/news,002738,1256647966.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2759</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
+          <t>中矿资源：截至本公告日，公司及控股子公司对外提供的担保总额为约20.47亿元人民币</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-02 18:15</t>
+          <t>12-07 17:27</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,002738,1254336132.html</t>
+          <t>/news,002738,1256541452.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4750</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
+          <t>中矿资源：公司自有矿山生产的锂精矿已分批次源源不断运往国内生产线</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12-02 17:44</t>
+          <t>12-07 16:46</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,002738,1254327023.html</t>
+          <t>/news,002738,1256529836.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
+          <t>中矿资源：融资净买入1443.96万元，融资余额15.56亿元（12-06）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>12-02 08:48</t>
+          <t>12-07 08:54</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,002738,1253920298.html</t>
+          <t>/news,002738,1256100163.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中矿资源12月01日被深股通减持45.65万股</t>
+          <t>中矿资源12月06日获深股通增持63.29万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>12-02 07:58</t>
+          <t>12-07 07:50</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,002738,1253914642.html</t>
+          <t>/news,002738,1256091265.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
+          <t>中矿资源：105.42万股限售股12月12日解禁 占比0.23%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>12-01 17:55</t>
+          <t>12-06 19:55</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,002738,1253756471.html</t>
+          <t>/news,002738,1255942399.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
+          <t>中矿资源：融资净偿还612.02万元，融资余额15.41亿元（12-05）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>12-01 17:47</t>
+          <t>12-06 08:47</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,002738,1253753424.html</t>
+          <t>/news,002738,1255456774.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6143</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
+          <t>中矿资源12月05日获深股通增持28.63万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12-01 17:19</t>
+          <t>12-06 07:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,002738,1253746346.html</t>
+          <t>/news,002738,1255449720.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
+          <t>中矿资源：融资净偿还1071.98万元，融资余额15.47亿元（12-02）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,93 +2013,93 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>12-01 08:41</t>
+          <t>12-05 08:49</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,002738,1253308684.html</t>
+          <t>/news,002738,1254802331.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>中矿资源11月30日获深股通增持50.42万股</t>
+          <t>中矿资源本周融资净买入813.27万元，居小金属板块第六</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12-01 07:52</t>
+          <t>12-04 15:08</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,002738,1253302139.html</t>
+          <t>/news,002738,1254650815.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
+          <t>中矿资源本周深股通持股市值减少2952.91万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-30 08:45</t>
+          <t>12-04 14:07</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,002738,1252785484.html</t>
+          <t>/news,002738,1254643536.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>中矿资源11月29日被深股通减持37.04万股</t>
+          <t>中矿资源12月02日被深股通减持83.75万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-30 07:50</t>
+          <t>12-03 07:47</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,002738,1252778358.html</t>
+          <t>/news,002738,1254511683.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>5440</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
+          <t>中矿资源：按加拿大官方要求 公司以200万加元出售动力金属公司750万股普通股股票</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-29 08:40</t>
+          <t>12-02 20:15</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,002738,1252220655.html</t>
+          <t>/news,002738,1254382957.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>2766</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>中矿资源11月28日获深股通增持81.28万股</t>
+          <t>中矿资源：全资子公司出售其所持有的PWM750万股普通股股票</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-29 07:58</t>
+          <t>12-02 18:15</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,002738,1252214840.html</t>
+          <t>/news,002738,1254336132.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12986</t>
+          <t>4756</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>多家上市公司回应锂价相关提问</t>
+          <t>中矿资源：全资子公司香港中矿稀有与澳大利亚上市公司Winsome签署协议书</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-28 15:36</t>
+          <t>12-02 17:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,002738,1252041409.html</t>
+          <t>/news,002738,1254327023.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
+          <t>中矿资源：融资净买入2928.36万元，融资余额15.58亿元（12-01）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-28 08:43</t>
+          <t>12-02 08:48</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,002738,1251733486.html</t>
+          <t>/news,002738,1253920298.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,71 +2259,71 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
+          <t>中矿资源12月01日被深股通减持45.65万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-27 15:22</t>
+          <t>12-02 07:58</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,002738,1251593354.html</t>
+          <t>/news,002738,1253914642.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
+          <t>中矿资源：拟定增募资不超30亿元获证监会核准批复</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>中矿资源资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-27 14:05</t>
+          <t>12-01 17:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,002738,1251584174.html</t>
+          <t>/news,002738,1253756471.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
+          <t>中矿资源非公开发行股票申请获证监会核准批复</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-25 08:46</t>
+          <t>12-01 17:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,002738,1250950430.html</t>
+          <t>/news,002738,1253753424.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>6158</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中矿资源11月24日获深股通增持47.29万股</t>
+          <t>中矿资源：证监会核准非公开发行不超过约1.37亿股新股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-25 07:55</t>
+          <t>12-01 17:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,002738,1250944191.html</t>
+          <t>/news,002738,1253746346.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源：融资净买入804.81万元，融资余额15.29亿元（11-30）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-24 09:03</t>
+          <t>12-01 08:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,002738,1250432350.html</t>
+          <t>/news,002738,1253308684.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
+          <t>中矿资源11月30日获深股通增持50.42万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-24 08:56</t>
+          <t>12-01 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,002738,1250430419.html</t>
+          <t>/news,002738,1253302139.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中矿资源11月23日获深股通增持95.85万股</t>
+          <t>中矿资源：连续5日融资净偿还累计1.14亿元（11-29）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-24 07:55</t>
+          <t>11-30 08:45</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,002738,1250421215.html</t>
+          <t>/news,002738,1252785484.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
+          <t>中矿资源11月29日被深股通减持37.04万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-23 16:09</t>
+          <t>11-30 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,002738,1250228286.html</t>
+          <t>/news,002738,1252778358.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
+          <t>中矿资源：连续4日融资净偿还累计1.01亿元（11-28）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-23 15:56</t>
+          <t>11-29 08:40</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,002738,1250224885.html</t>
+          <t>/news,002738,1252220655.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>656</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
+          <t>中矿资源11月28日获深股通增持81.28万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-23 10:55</t>
+          <t>11-29 07:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,002738,1250043283.html</t>
+          <t>/news,002738,1252214840.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>12998</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
+          <t>多家上市公司回应锂价相关提问</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-23 10:21</t>
+          <t>11-28 15:36</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,002738,1250005986.html</t>
+          <t>/news,002738,1252041409.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>5132</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
+          <t>中矿资源：连续3日融资净偿还累计8506.24万元（11-25）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-23 10:10</t>
+          <t>11-28 08:43</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,002738,1249983063.html</t>
+          <t>/news,002738,1251733486.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,29 +2643,29 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入495.11万元，融资余额16.35亿元（11-22）</t>
+          <t>中矿资源本周融资净偿还2133.2万元，居小金属板块第三</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-23 08:44</t>
+          <t>11-27 15:22</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,002738,1249883077.html</t>
+          <t>/news,002738,1251593354.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>中矿资源11月22日被深股通减持22.04万股</t>
+          <t>中矿资源本周深股通持股市值增加9956.04万元，居小金属板块第二</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>中矿资源资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-23 07:56</t>
+          <t>11-27 14:05</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,002738,1249876930.html</t>
+          <t>/news,002738,1251584174.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2030</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好</t>
+          <t>中矿资源：融资净偿还518.79万元，融资余额15.84亿元（11-24）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-23 07:38</t>
+          <t>11-25 08:46</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,002738,1249874695.html</t>
+          <t>/news,002738,1250950430.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中矿资源：目前锂盐产品销售情况良好；锂盐价格由市场供需关系决定</t>
+          <t>中矿资源11月24日获深股通增持47.29万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 21:30</t>
+          <t>11-25 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,002738,1249788049.html</t>
+          <t>/news,002738,1250944191.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3655</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中矿资源拟定增募资不超30亿获通过 方正承销保荐建功</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-22 11:20</t>
+          <t>11-24 09:03</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,002738,1249514648.html</t>
+          <t>/news,002738,1250432350.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>中矿资源：融资净买入2450.03万元，融资余额16.3亿元（11-21）</t>
+          <t>中矿资源：融资净偿还4559.55万元，两市排名第14（11-23）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-22 08:48</t>
+          <t>11-24 08:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,002738,1249355949.html</t>
+          <t>/news,002738,1250430419.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>916</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中矿资源11月21日获深股通增持9.75万股</t>
+          <t>中矿资源11月23日获深股通增持95.85万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-22 07:57</t>
+          <t>11-24 07:55</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,002738,1249349599.html</t>
+          <t>/news,002738,1250421215.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6294</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中矿资源：拟定增募资不超30亿元申请获证监会审核通过</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口不受影响</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-21 22:22</t>
+          <t>11-23 16:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,002738,1249280599.html</t>
+          <t>/news,002738,1250228286.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>3419</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中矿资源非公开发行股票申请获证监会审核通过</t>
+          <t>中矿资源：公司津巴布韦bikita矿山的精矿出口未受影响</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-21 18:02</t>
+          <t>11-23 15:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,002738,1249211451.html</t>
+          <t>/news,002738,1250224885.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得证监会审核通过</t>
+          <t>中矿资源：津巴布韦针对不规范锂矿开采行为做出决定 不影响公司精矿出口</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-21 17:35</t>
+          <t>11-23 10:55</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,002738,1249204860.html</t>
+          <t>/news,002738,1250043283.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>2523</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>中矿资源：非公开发行股票申请获得中国证监会发行审核委员会审核通过</t>
+          <t>中矿资源：津巴布韦对不规范的锂矿开采行为做出了相关决定 不影响bikita矿山精矿出口</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-21 17:32</t>
+          <t>11-23 10:21</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,002738,1249203784.html</t>
+          <t>/news,002738,1250005986.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>5153</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>中矿资源：融资净偿还2781.88万元，融资余额16.06亿元（11-18）</t>
+          <t>中矿资源：津巴布韦针对目前不规范的锂矿开采行为做出了相关决定 不影响我司bikita矿山的精矿出口</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-21 08:45</t>
+          <t>11-23 10:10</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,002738,1248871446.html</t>
+          <t>/news,002738,1249983063.html</t>
         </is>
       </c>
     </row>
